--- a/road.xlsx
+++ b/road.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kannfu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\source\harbor2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B53DE7-B058-4585-AFF5-CD60C0D5D2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEA605F-20BE-4232-B28E-17A0C2E9C1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>a1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,30 @@
   </si>
   <si>
     <t>6,0,372</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[210,0,107]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[270,0,107]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[328,0,107]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[415,0,107]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210,0,107</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -631,7 +655,7 @@
     <col min="8" max="11" width="8.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
@@ -659,8 +683,9 @@
       <c r="K1" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -694,8 +719,9 @@
       <c r="K2" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -725,8 +751,9 @@
         <v>34</v>
       </c>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -756,8 +783,9 @@
         <v>40</v>
       </c>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -777,22 +805,25 @@
         <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
@@ -818,7 +849,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -842,7 +873,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -866,7 +897,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -890,7 +921,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -922,7 +953,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -952,7 +983,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -978,7 +1009,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1001,6 +1032,27 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
